--- a/Data/client_data.xlsx
+++ b/Data/client_data.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amolu\eclipse-workspace\POM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3B6B5F-6F3C-4572-8A2E-E9A466D15161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B9EBE6-B6E1-4F47-9407-08EA6A3C0216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DBTesting" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="122">
   <si>
     <t>Client Name</t>
   </si>
@@ -218,6 +221,174 @@
   </si>
   <si>
     <t>03/09/1990</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>Client already exists!</t>
+  </si>
+  <si>
+    <t>Record successfully created</t>
+  </si>
+  <si>
+    <t>xpathActual</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'danger')]</t>
+  </si>
+  <si>
+    <t>//div[contains(@class,'success')]</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>incorrect or no error message</t>
+  </si>
+  <si>
+    <t>incorrect message or client is not added</t>
+  </si>
+  <si>
+    <t>Excel Data</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;String&gt; expected = new ArrayList()</t>
+  </si>
+  <si>
+    <t>Database Data</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;String&gt; actual = new ArrayList()</t>
+  </si>
+  <si>
+    <t>client_date_created</t>
+  </si>
+  <si>
+    <t>client_date_modified</t>
+  </si>
+  <si>
+    <t>client_name</t>
+  </si>
+  <si>
+    <t>client_address_1</t>
+  </si>
+  <si>
+    <t>client_address_2</t>
+  </si>
+  <si>
+    <t>client_city</t>
+  </si>
+  <si>
+    <t>client_state</t>
+  </si>
+  <si>
+    <t>client_zip</t>
+  </si>
+  <si>
+    <t>client_country</t>
+  </si>
+  <si>
+    <t>client_phone</t>
+  </si>
+  <si>
+    <t>client_fax</t>
+  </si>
+  <si>
+    <t>client_mobile</t>
+  </si>
+  <si>
+    <t>client_email</t>
+  </si>
+  <si>
+    <t>client_web</t>
+  </si>
+  <si>
+    <t>client_vat_id</t>
+  </si>
+  <si>
+    <t>client_tax_code</t>
+  </si>
+  <si>
+    <t>client_language</t>
+  </si>
+  <si>
+    <t>client_active</t>
+  </si>
+  <si>
+    <t>client_surname</t>
+  </si>
+  <si>
+    <t>client_avs</t>
+  </si>
+  <si>
+    <t>client_insurednumber</t>
+  </si>
+  <si>
+    <t>client_veka</t>
+  </si>
+  <si>
+    <t>client_birthdate</t>
+  </si>
+  <si>
+    <t>client_gender</t>
+  </si>
+  <si>
+    <t>clientName</t>
+  </si>
+  <si>
+    <t>clientSurname</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>streetAddress1</t>
+  </si>
+  <si>
+    <t>streetAddress2</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>birthdate</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>faxNumber</t>
+  </si>
+  <si>
+    <t>mobileNumber</t>
+  </si>
+  <si>
+    <t>emailAddress</t>
+  </si>
+  <si>
+    <t>webAddress</t>
+  </si>
+  <si>
+    <t>vatId</t>
+  </si>
+  <si>
+    <t>taxesCode</t>
+  </si>
+  <si>
+    <t>Rohan6</t>
   </si>
 </sst>
 </file>
@@ -248,12 +419,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -272,15 +449,18 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -586,10 +766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A5" sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,9 +791,11 @@
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,229 +850,274 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="S1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2">
         <v>400001</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2">
         <v>9820012345</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2">
         <v>9820098765</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2">
         <v>9820012345</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" t="s">
         <v>46</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" t="s">
         <v>54</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="S2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T2" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3">
         <v>380015</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3">
         <v>9400012345</v>
       </c>
-      <c r="M3" s="4">
+      <c r="M3">
         <v>9400098765</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3">
         <v>9400010987</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" t="s">
         <v>55</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="S3" t="s">
+        <v>67</v>
+      </c>
+      <c r="T3" t="s">
+        <v>70</v>
+      </c>
+      <c r="U3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4">
         <v>600004</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4">
         <v>9444412345</v>
       </c>
-      <c r="M4" s="4">
+      <c r="M4">
         <v>9444498765</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4">
         <v>9444412345</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="O4" t="s">
         <v>48</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="S4" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" t="s">
+        <v>71</v>
+      </c>
+      <c r="U4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5">
         <v>560025</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5">
         <v>9845012345</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5">
         <v>9845098765</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5">
         <v>9845012345</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="O5" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" t="s">
         <v>57</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="R5" t="s">
         <v>61</v>
+      </c>
+      <c r="S5" t="s">
+        <v>68</v>
+      </c>
+      <c r="T5" t="s">
+        <v>71</v>
+      </c>
+      <c r="U5" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -901,5 +1128,690 @@
     <hyperlink ref="P5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF6786CA-591A-4985-8E68-59D9C551EC5F}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2">
+        <v>400001</v>
+      </c>
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2">
+        <v>9820012345</v>
+      </c>
+      <c r="M2">
+        <v>9820098765</v>
+      </c>
+      <c r="N2">
+        <v>9820012345</v>
+      </c>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{E79E2B46-96BF-44AB-A6B2-A7C69EE72536}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE78337E-431C-4C0B-B500-C04150638639}">
+  <dimension ref="A5:R14"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8">
+        <v>400001</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8">
+        <v>9820012345</v>
+      </c>
+      <c r="M8">
+        <v>9820098765</v>
+      </c>
+      <c r="N8">
+        <v>9820012345</v>
+      </c>
+      <c r="O8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>54</v>
+      </c>
+      <c r="R8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14">
+        <v>400001</v>
+      </c>
+      <c r="I14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14">
+        <v>9820012345</v>
+      </c>
+      <c r="M14">
+        <v>9820098765</v>
+      </c>
+      <c r="N14">
+        <v>9820012345</v>
+      </c>
+      <c r="O14" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>54</v>
+      </c>
+      <c r="R14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P8" r:id="rId1" xr:uid="{2ED26680-4616-4558-B08B-8C200D2D4BD2}"/>
+    <hyperlink ref="P14" r:id="rId2" xr:uid="{C268AF1A-F260-448D-A1F7-225336979F1E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB9B4E0-F080-4FFB-982B-E1E4C1714C8B}">
+  <dimension ref="E4:I27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E12" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E13" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E14" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E15" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E18" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E19" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" t="s">
+        <v>118</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E20" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H20" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E21" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" t="s">
+        <v>120</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E22" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E23" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E24" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E25" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E26" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E27" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>